--- a/other2/thomas/TernarySearch/UVa1476_ErrorCurves/三分搜索TernarySearch.xlsx
+++ b/other2/thomas/TernarySearch/UVa1476_ErrorCurves/三分搜索TernarySearch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\UVa1476_ErrorCurves\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\gzshawnliang\competitive-programming\other2\thomas\TernarySearch\UVa1476_ErrorCurves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5233411C-2688-47B9-8051-B1FE17EDCB19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37454A98-7484-4864-91A2-C3CD83FA9F25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="0" windowWidth="27730" windowHeight="14750" xr2:uid="{93C3F52D-6B5D-4D3C-BBCB-85CC5E6FB24D}"/>
+    <workbookView xWindow="4200" yWindow="0" windowWidth="27730" windowHeight="14750" xr2:uid="{93C3F52D-6B5D-4D3C-BBCB-85CC5E6FB24D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
   <si>
     <t>l</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,14 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/ternary-search/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m2=(m1+r)/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m1=(l+r)/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,9 +240,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>213894</xdr:colOff>
+      <xdr:colOff>215164</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>23393</xdr:rowOff>
+      <xdr:rowOff>24663</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -285,9 +293,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>213894</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>177131</xdr:rowOff>
+      <xdr:colOff>215164</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -920,7 +928,7 @@
   <dimension ref="B1:U35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -933,10 +941,16 @@
       <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="2:21" ht="14.5" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
